--- a/CashFlow/MCO_cashflow.xlsx
+++ b/CashFlow/MCO_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-105000000.0</v>
+        <v>227000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>127000000.0</v>
+        <v>247000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>253000000.0</v>
+        <v>137000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>223000000.0</v>
+        <v>124000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>271000000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>65000000.0</v>
@@ -3790,10 +3790,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-422000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-556000000.0</v>
